--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.15/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.15/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="867">
   <si>
     <t>anchor score</t>
   </si>
@@ -292,472 +292,472 @@
     <t>avoid</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>charged</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>charged</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>services</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>come</t>
   </si>
   <si>
     <t>social</t>
@@ -2983,7 +2983,7 @@
         <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3041,7 +3041,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03315409890746032</v>
+        <v>0.03367670244891958</v>
       </c>
       <c r="C3">
         <v>237</v>
@@ -3062,28 +3062,28 @@
         <v>55</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="K3">
-        <v>0.004740474805837685</v>
+        <v>0.00898317623554269</v>
       </c>
       <c r="L3">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="M3">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3091,7 +3091,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01874379536323118</v>
+        <v>0.01903925125435805</v>
       </c>
       <c r="C4">
         <v>227</v>
@@ -3112,28 +3112,28 @@
         <v>287</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>89</v>
+        <v>247</v>
       </c>
       <c r="K4">
-        <v>0.004454331508286272</v>
+        <v>0.00785292054085176</v>
       </c>
       <c r="L4">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="M4">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="N4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3141,7 +3141,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01362050002716439</v>
+        <v>0.01383519811232454</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -3162,28 +3162,28 @@
         <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>248</v>
+        <v>125</v>
       </c>
       <c r="K5">
-        <v>0.004442282693244328</v>
+        <v>0.004740474805837685</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>174</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3191,7 +3191,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01199068247712525</v>
+        <v>0.01217968997042343</v>
       </c>
       <c r="C6">
         <v>31</v>
@@ -3212,28 +3212,28 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K6">
-        <v>0.004330253211129595</v>
+        <v>0.004454331508286272</v>
       </c>
       <c r="L6">
-        <v>589</v>
+        <v>298</v>
       </c>
       <c r="M6">
-        <v>621</v>
+        <v>305</v>
       </c>
       <c r="N6">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O6">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>2486</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3241,7 +3241,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01076795073905619</v>
+        <v>0.01093768447865191</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -3262,28 +3262,28 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="K7">
-        <v>0.004198769575546637</v>
+        <v>0.004442282693244328</v>
       </c>
       <c r="L7">
-        <v>428</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>446</v>
+        <v>56</v>
       </c>
       <c r="N7">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1697</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3291,7 +3291,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01032825551916883</v>
+        <v>0.01049105840295341</v>
       </c>
       <c r="C8">
         <v>23</v>
@@ -3312,28 +3312,28 @@
         <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="K8">
-        <v>0.003758507017380377</v>
+        <v>0.004330253211129595</v>
       </c>
       <c r="L8">
-        <v>118</v>
+        <v>589</v>
       </c>
       <c r="M8">
-        <v>119</v>
+        <v>621</v>
       </c>
       <c r="N8">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O8">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3341,7 +3341,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0101012331694943</v>
+        <v>0.010260457530929</v>
       </c>
       <c r="C9">
         <v>22</v>
@@ -3362,28 +3362,28 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="K9">
-        <v>0.00366511963641312</v>
+        <v>0.004198769575546637</v>
       </c>
       <c r="L9">
-        <v>114</v>
+        <v>428</v>
       </c>
       <c r="M9">
-        <v>115</v>
+        <v>446</v>
       </c>
       <c r="N9">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O9">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3391,7 +3391,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0101012331694943</v>
+        <v>0.010260457530929</v>
       </c>
       <c r="C10">
         <v>22</v>
@@ -3412,28 +3412,28 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="K10">
-        <v>0.003659350230218784</v>
+        <v>0.003758507017380377</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3441,7 +3441,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0101012331694943</v>
+        <v>0.010260457530929</v>
       </c>
       <c r="C11">
         <v>22</v>
@@ -3462,28 +3462,28 @@
         <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="K11">
-        <v>0.003561749968567646</v>
+        <v>0.00366511963641312</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3491,7 +3491,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.00986898986825613</v>
+        <v>0.01002455341019319</v>
       </c>
       <c r="C12">
         <v>21</v>
@@ -3512,28 +3512,28 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>90</v>
+        <v>249</v>
       </c>
       <c r="K12">
-        <v>0.003372802585135722</v>
+        <v>0.003659350230218784</v>
       </c>
       <c r="L12">
-        <v>269</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="N12">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>614</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3541,7 +3541,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009136909184483189</v>
+        <v>0.009280933038400331</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -3562,28 +3562,28 @@
         <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="K13">
-        <v>0.003326047717350576</v>
+        <v>0.003561749968567646</v>
       </c>
       <c r="L13">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="N13">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>665</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3591,7 +3591,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008879479653715282</v>
+        <v>0.009019445681032127</v>
       </c>
       <c r="C14">
         <v>17</v>
@@ -3612,28 +3612,28 @@
         <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="K14">
-        <v>0.00325141800329636</v>
+        <v>0.003372802585135722</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>269</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3641,7 +3641,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.00861436059124495</v>
+        <v>0.008750147582921525</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -3662,28 +3662,28 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="K15">
-        <v>0.003227341499050881</v>
+        <v>0.003326047717350576</v>
       </c>
       <c r="L15">
-        <v>96</v>
+        <v>228</v>
       </c>
       <c r="M15">
-        <v>97</v>
+        <v>236</v>
       </c>
       <c r="N15">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O15">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>211</v>
+        <v>665</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3691,7 +3691,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.00861436059124495</v>
+        <v>0.008750147582921525</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -3712,16 +3712,16 @@
         <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K16">
-        <v>0.003141168216340704</v>
+        <v>0.00325141800329636</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3741,7 +3741,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.008340818777029291</v>
+        <v>0.008472293966378037</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -3762,28 +3762,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>253</v>
+        <v>140</v>
       </c>
       <c r="K17">
-        <v>0.002968124973806371</v>
+        <v>0.003227341499050881</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>91</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3791,7 +3791,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.0080579964846415</v>
+        <v>0.008185013584750118</v>
       </c>
       <c r="C18">
         <v>14</v>
@@ -3812,16 +3812,16 @@
         <v>37</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K18">
-        <v>0.002908156671454918</v>
+        <v>0.003141168216340704</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3841,7 +3841,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0080579964846415</v>
+        <v>0.008185013584750118</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -3862,16 +3862,16 @@
         <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K19">
-        <v>0.002784348030853382</v>
+        <v>0.002968124973806371</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -3891,7 +3891,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007764879704267488</v>
+        <v>0.00788727644452521</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -3912,28 +3912,28 @@
         <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="K20">
-        <v>0.00278285691014972</v>
+        <v>0.002908156671454918</v>
       </c>
       <c r="L20">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="N20">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -3941,7 +3941,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007764879704267488</v>
+        <v>0.00788727644452521</v>
       </c>
       <c r="C21">
         <v>13</v>
@@ -3962,16 +3962,16 @@
         <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K21">
-        <v>0.002720331472911303</v>
+        <v>0.002784348030853382</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -3991,7 +3991,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007764879704267488</v>
+        <v>0.00788727644452521</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -4012,28 +4012,28 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
       <c r="K22">
-        <v>0.002654771682858332</v>
+        <v>0.00278285691014972</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4041,7 +4041,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007764879704267488</v>
+        <v>0.00788727644452521</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -4062,28 +4062,28 @@
         <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="K23">
-        <v>0.002613241130056002</v>
+        <v>0.002720331472911303</v>
       </c>
       <c r="L23">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="N23">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>470</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4091,7 +4091,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007460255109377663</v>
+        <v>0.007577850093673043</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -4112,28 +4112,28 @@
         <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="K24">
-        <v>0.002598021588166244</v>
+        <v>0.002654771682858332</v>
       </c>
       <c r="L24">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4141,7 +4141,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007460255109377663</v>
+        <v>0.007577850093673043</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -4162,28 +4162,28 @@
         <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="K25">
-        <v>0.002529719595348662</v>
+        <v>0.002613241130056002</v>
       </c>
       <c r="L25">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="M25">
-        <v>243</v>
+        <v>97</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>97</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4191,7 +4191,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0071426504724959</v>
+        <v>0.007255239098196477</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -4212,16 +4212,16 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26">
+        <v>0.002598021588166244</v>
+      </c>
+      <c r="L26">
+        <v>127</v>
+      </c>
+      <c r="M26">
         <v>131</v>
-      </c>
-      <c r="K26">
-        <v>0.002519024491130943</v>
-      </c>
-      <c r="L26">
-        <v>108</v>
-      </c>
-      <c r="M26">
-        <v>111</v>
       </c>
       <c r="N26">
         <v>0.97</v>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4241,7 +4241,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0071426504724959</v>
+        <v>0.007255239098196477</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4262,28 +4262,28 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="K27">
-        <v>0.002518537555665154</v>
+        <v>0.002519024491130943</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4291,7 +4291,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006810250013582195</v>
+        <v>0.00691759905616227</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -4312,7 +4312,7 @@
         <v>9</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K28">
         <v>0.002518537555665154</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4341,7 +4341,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006460770443433712</v>
+        <v>0.006562610687191143</v>
       </c>
       <c r="C29">
         <v>9</v>
@@ -4362,7 +4362,7 @@
         <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K29">
         <v>0.002518537555665154</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4391,7 +4391,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006460770443433712</v>
+        <v>0.006562610687191143</v>
       </c>
       <c r="C30">
         <v>9</v>
@@ -4412,16 +4412,16 @@
         <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K30">
-        <v>0.002447578555407464</v>
+        <v>0.002518537555665154</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4441,7 +4441,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006091272789655461</v>
+        <v>0.006187288692266889</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -4462,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K31">
         <v>0.002447578555407464</v>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4491,7 +4491,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006091272789655461</v>
+        <v>0.006187288692266889</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -4512,7 +4512,7 @@
         <v>29</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K32">
         <v>0.002447578555407464</v>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>96</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4541,7 +4541,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006091272789655461</v>
+        <v>0.006187288692266889</v>
       </c>
       <c r="C33">
         <v>8</v>
@@ -4562,28 +4562,28 @@
         <v>5</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="K33">
-        <v>0.00244142615531771</v>
+        <v>0.002447578555407464</v>
       </c>
       <c r="L33">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="N33">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4591,7 +4591,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006091272789655461</v>
+        <v>0.006187288692266889</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -4612,28 +4612,28 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="K34">
-        <v>0.002374499979045097</v>
+        <v>0.00244142615531771</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>265</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4641,7 +4641,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.006091272789655461</v>
+        <v>0.006187288692266889</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -4662,7 +4662,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K35">
         <v>0.002374499979045097</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>24</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4691,7 +4691,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -4712,28 +4712,28 @@
         <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="K36">
-        <v>0.002349387924146801</v>
+        <v>0.002374499979045097</v>
       </c>
       <c r="L36">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="N36">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>219</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4741,7 +4741,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -4762,28 +4762,28 @@
         <v>8</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>266</v>
+        <v>123</v>
       </c>
       <c r="K37">
-        <v>0.002299099718602881</v>
+        <v>0.002349387924146801</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -4791,7 +4791,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -4812,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K38">
         <v>0.002299099718602881</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4841,7 +4841,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -4862,7 +4862,7 @@
         <v>4</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K39">
         <v>0.002299099718602881</v>
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4891,7 +4891,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -4912,7 +4912,7 @@
         <v>142</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K40">
         <v>0.002299099718602881</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -4941,7 +4941,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -4962,28 +4962,28 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="K41">
-        <v>0.002266074396810167</v>
+        <v>0.002299099718602881</v>
       </c>
       <c r="L41">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -4991,7 +4991,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -5012,28 +5012,28 @@
         <v>5</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>270</v>
+        <v>131</v>
       </c>
       <c r="K42">
-        <v>0.002221141346622164</v>
+        <v>0.002266074396810167</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>292</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5041,7 +5041,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -5062,7 +5062,7 @@
         <v>3</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K43">
         <v>0.002221141346622164</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>95</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5091,7 +5091,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -5112,16 +5112,16 @@
         <v>24</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K44">
-        <v>0.002140345357008816</v>
+        <v>0.002221141346622164</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5141,7 +5141,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005275196977222534</v>
+        <v>0.005358349188051323</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K45">
         <v>0.002140345357008816</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5191,7 +5191,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005275196977222534</v>
+        <v>0.005358349188051323</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -5212,7 +5212,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K46">
         <v>0.002140345357008816</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5241,7 +5241,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005275196977222534</v>
+        <v>0.005358349188051323</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -5262,28 +5262,28 @@
         <v>3</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>125</v>
+        <v>274</v>
       </c>
       <c r="K47">
-        <v>0.002067552615878113</v>
+        <v>0.002140345357008816</v>
       </c>
       <c r="L47">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="N47">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5291,7 +5291,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005275196977222534</v>
+        <v>0.005358349188051323</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -5341,7 +5341,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005275196977222534</v>
+        <v>0.005358349188051323</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -5391,7 +5391,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004815573966179747</v>
+        <v>0.004891481202142002</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -5441,7 +5441,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004815573966179747</v>
+        <v>0.004891481202142002</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -5491,7 +5491,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004815573966179747</v>
+        <v>0.004891481202142002</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -5541,7 +5541,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004815573966179747</v>
+        <v>0.004891481202142002</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -5591,7 +5591,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004815573966179747</v>
+        <v>0.004891481202142002</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -5612,7 +5612,7 @@
         <v>35</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K54">
         <v>0.002055767950784821</v>
@@ -5641,7 +5641,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004815573966179747</v>
+        <v>0.004891481202142002</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -5662,7 +5662,7 @@
         <v>4</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K55">
         <v>0.002023245302428148</v>
@@ -5691,7 +5691,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004307180295622475</v>
+        <v>0.004375073791460763</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K56">
         <v>0.001992773272875936</v>
@@ -5741,7 +5741,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004307180295622475</v>
+        <v>0.004375073791460763</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -5762,7 +5762,7 @@
         <v>22</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K57">
         <v>0.001980202226148766</v>
@@ -5791,7 +5791,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004307180295622475</v>
+        <v>0.004375073791460763</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -5841,7 +5841,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -5891,7 +5891,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -5941,7 +5941,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -5991,7 +5991,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -6041,7 +6041,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -6062,7 +6062,7 @@
         <v>25</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K63">
         <v>0.001954448421079295</v>
@@ -6091,7 +6091,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -6112,7 +6112,7 @@
         <v>3</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K64">
         <v>0.001898890354394573</v>
@@ -6141,7 +6141,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -6191,7 +6191,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -6241,7 +6241,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -6291,7 +6291,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003661689470401935</v>
+        <v>0.003719408182356599</v>
       </c>
       <c r="C68">
         <v>32</v>
@@ -6312,7 +6312,7 @@
         <v>2486</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K68">
         <v>0.001813796898106011</v>
@@ -6341,7 +6341,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003123829246787852</v>
+        <v>0.00317306974135964</v>
       </c>
       <c r="C69">
         <v>18</v>
@@ -6362,7 +6362,7 @@
         <v>1697</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K69">
         <v>0.001806828533400766</v>
@@ -6391,7 +6391,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6412,7 +6412,7 @@
         <v>250</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K70">
         <v>0.00179848756133979</v>
@@ -6441,7 +6441,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -6491,7 +6491,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -6541,7 +6541,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -6591,7 +6591,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -6641,7 +6641,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -6691,7 +6691,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -6741,7 +6741,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -6791,7 +6791,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -6812,7 +6812,7 @@
         <v>4</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K78">
         <v>0.001744046616627552</v>
@@ -6841,7 +6841,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -6891,7 +6891,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -6941,7 +6941,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -6991,7 +6991,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7041,7 +7041,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7091,7 +7091,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002476705112911817</v>
+        <v>0.002515745077978299</v>
       </c>
       <c r="C84">
         <v>7</v>
@@ -7141,7 +7141,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002474354959505959</v>
+        <v>0.002513357879424681</v>
       </c>
       <c r="C85">
         <v>11</v>
@@ -7191,7 +7191,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002395411660934711</v>
+        <v>0.00243317020839973</v>
       </c>
       <c r="C86">
         <v>16</v>
@@ -7241,28 +7241,28 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002269183089806852</v>
+        <v>0.002295880363163015</v>
       </c>
       <c r="C87">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D87">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E87">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F87">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>97</v>
+        <v>665</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K87">
         <v>0.001664130761467137</v>
@@ -7291,25 +7291,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002260252314057683</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C88">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>665</v>
+        <v>25</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>304</v>
@@ -7341,7 +7341,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>305</v>
@@ -7391,7 +7391,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>306</v>
@@ -7441,7 +7441,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7459,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>307</v>
@@ -7491,7 +7491,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>308</v>
@@ -7541,7 +7541,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>309</v>
@@ -7591,7 +7591,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>310</v>
@@ -7641,7 +7641,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>311</v>
@@ -7691,7 +7691,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7709,10 +7709,10 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K96">
         <v>0.001560553893949729</v>
@@ -7741,7 +7741,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -7759,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>312</v>
@@ -7791,7 +7791,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7809,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>313</v>
@@ -7841,7 +7841,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -7859,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>314</v>
@@ -7891,7 +7891,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>315</v>
@@ -7941,7 +7941,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>316</v>
@@ -7991,7 +7991,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>317</v>
@@ -8041,7 +8041,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8059,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>318</v>
@@ -8091,7 +8091,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8141,7 +8141,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>320</v>
@@ -8191,7 +8191,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8209,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>321</v>
@@ -8241,7 +8241,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>322</v>
@@ -8291,7 +8291,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>323</v>
@@ -8341,7 +8341,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8359,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>324</v>
@@ -8391,7 +8391,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8409,7 +8409,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>325</v>
@@ -8441,7 +8441,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>326</v>
@@ -8491,7 +8491,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8509,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>327</v>
@@ -8541,7 +8541,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>328</v>
@@ -8591,7 +8591,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8609,7 +8609,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>329</v>
@@ -8641,7 +8641,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8659,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>330</v>
@@ -8691,7 +8691,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8709,10 +8709,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K116">
         <v>0.001440748630379858</v>
@@ -8741,28 +8741,28 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002153590147811238</v>
+        <v>0.002136809657097655</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K117">
         <v>0.001408769751842694</v>
@@ -8791,28 +8791,28 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002103650107230284</v>
+        <v>0.002094186511717937</v>
       </c>
       <c r="C118">
         <v>11</v>
       </c>
       <c r="D118">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E118">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F118">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K118">
         <v>0.001345332027886647</v>
@@ -8841,25 +8841,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002061688398544297</v>
+        <v>0.001795135349146997</v>
       </c>
       <c r="C119">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D119">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="E119">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F119">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>331</v>
@@ -8891,25 +8891,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.001964169876197276</v>
+        <v>0.001738218483980151</v>
       </c>
       <c r="C120">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D120">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="E120">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F120">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>332</v>
@@ -8941,25 +8941,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.001767277987153616</v>
+        <v>0.0017358668670986</v>
       </c>
       <c r="C121">
         <v>8</v>
       </c>
       <c r="D121">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E121">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F121">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>270</v>
+        <v>512</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>333</v>
@@ -8991,25 +8991,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.001711244372220373</v>
+        <v>0.001699081059613603</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D122">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="E122">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F122">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>282</v>
+        <v>29</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>334</v>
@@ -9041,13 +9041,13 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.001708929248321242</v>
+        <v>0.001641919603861422</v>
       </c>
       <c r="C123">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D123">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E123">
         <v>0.9399999999999999</v>
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>512</v>
+        <v>3078</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>335</v>
@@ -9091,13 +9091,13 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.001672714292251886</v>
+        <v>0.001547121236534582</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D124">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E124">
         <v>0.97</v>
@@ -9109,7 +9109,7 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>336</v>
@@ -9141,25 +9141,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001616439882351548</v>
+        <v>0.001511677967376523</v>
       </c>
       <c r="C125">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D125">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E125">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F125">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>3078</v>
+        <v>113</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>337</v>
@@ -9191,13 +9191,13 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001523112619939589</v>
+        <v>0.001476190420609893</v>
       </c>
       <c r="C126">
         <v>3</v>
       </c>
       <c r="D126">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E126">
         <v>0.97</v>
@@ -9209,7 +9209,7 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>338</v>
@@ -9241,25 +9241,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001488219368349638</v>
+        <v>0.001397255694060092</v>
       </c>
       <c r="C127">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D127">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E127">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F127">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>113</v>
+        <v>470</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>339</v>
@@ -9291,25 +9291,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001453282526262188</v>
+        <v>0.001302239397676341</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D128">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E128">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F128">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>340</v>
@@ -9341,25 +9341,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001375572728658491</v>
+        <v>0.001291523667662211</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D129">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E129">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F129">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>470</v>
+        <v>267</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>341</v>
@@ -9391,25 +9391,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001282030919067556</v>
+        <v>0.001275021680953269</v>
       </c>
       <c r="C130">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="E130">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F130">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>342</v>
@@ -9441,25 +9441,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001271481478447798</v>
+        <v>0.001264966247776341</v>
       </c>
       <c r="C131">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E131">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F131">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>267</v>
+        <v>13</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>343</v>
@@ -9491,25 +9491,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001255235573720407</v>
+        <v>0.001259095771588744</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D132">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="E132">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F132">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>344</v>
@@ -9541,25 +9541,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001245336183285405</v>
+        <v>0.001242347827381478</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="E133">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F133">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>345</v>
@@ -9591,25 +9591,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001239556806624264</v>
+        <v>0.001235173493067891</v>
       </c>
       <c r="C134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E134">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F134">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>346</v>
@@ -9641,25 +9641,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.00122306876122889</v>
+        <v>0.001213815038507468</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E135">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F135">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>347</v>
@@ -9691,25 +9691,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001216005760040199</v>
+        <v>0.001205566429383694</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D136">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E136">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F136">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>348</v>
@@ -9741,25 +9741,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001194978751351305</v>
+        <v>0.001173385371514401</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137">
+        <v>62</v>
+      </c>
+      <c r="E137">
+        <v>0.97</v>
+      </c>
+      <c r="F137">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137">
         <v>97</v>
-      </c>
-      <c r="E137">
-        <v>0.99</v>
-      </c>
-      <c r="F137">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="G137" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137">
-        <v>211</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>349</v>
@@ -9791,13 +9791,13 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001186858146219215</v>
+        <v>0.001171502344165434</v>
       </c>
       <c r="C138">
         <v>4</v>
       </c>
       <c r="D138">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E138">
         <v>0.9399999999999999</v>
@@ -9809,7 +9809,7 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>350</v>
@@ -9841,28 +9841,28 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001155176482102499</v>
+        <v>0.001153773443438674</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E139">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F139">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K139">
         <v>0.001308318663002069</v>
@@ -9891,28 +9891,28 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001153322676045692</v>
+        <v>0.00107262615140836</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E140">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F140">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K140">
         <v>0.001298339341633034</v>
@@ -9941,28 +9941,28 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001135868896860895</v>
+        <v>0.001064610504920632</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D141">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E141">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="F141">
-        <v>0.01000000000000001</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K141">
         <v>0.00127095380331008</v>
@@ -9991,28 +9991,28 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001055980868924481</v>
+        <v>0.001030909209154815</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E142">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F142">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K142">
         <v>0.001247355746595913</v>
@@ -10041,28 +10041,28 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001048089611255638</v>
+        <v>0.001018355529626694</v>
       </c>
       <c r="C143">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E143">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="F143">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>259</v>
+        <v>6</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K143">
         <v>0.001231248128920854</v>
@@ -10091,28 +10091,28 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001014911300676559</v>
+        <v>0.0009886216637008437</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D144">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E144">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F144">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K144">
         <v>0.001194658000308291</v>
@@ -10141,25 +10141,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001002552432305787</v>
+        <v>0.0009871585670145114</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D145">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E145">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F145">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>6</v>
+        <v>1115</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>351</v>
@@ -10191,25 +10191,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.0009732799839922363</v>
+        <v>0.0009771736120653015</v>
       </c>
       <c r="C146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E146">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F146">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>352</v>
@@ -10241,25 +10241,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.0009718395920083888</v>
+        <v>0.0009586343943442185</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E147">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F147">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>1115</v>
+        <v>226</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>353</v>
@@ -10291,13 +10291,13 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.0009620095861022356</v>
+        <v>0.0009462502589675051</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E148">
         <v>0.98</v>
@@ -10309,7 +10309,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>354</v>
@@ -10341,13 +10341,13 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.0009437580646261047</v>
+        <v>0.000945677065285074</v>
       </c>
       <c r="C149">
         <v>2</v>
       </c>
       <c r="D149">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E149">
         <v>0.95</v>
@@ -10359,7 +10359,7 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>355</v>
@@ -10391,25 +10391,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.0009315661093779417</v>
+        <v>0.0009391400320622692</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D150">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E150">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F150">
-        <v>0.02000000000000002</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>122</v>
+        <v>816</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>356</v>
@@ -10441,25 +10441,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.0009310018106592865</v>
+        <v>0.0009287000530610738</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D151">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E151">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F151">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>357</v>
@@ -10491,25 +10491,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.0009245662207627116</v>
+        <v>0.0009208516616819412</v>
       </c>
       <c r="C152">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E152">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F152">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>816</v>
+        <v>18</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>358</v>
@@ -10541,25 +10541,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.0009142882519822931</v>
+        <v>0.0008948737507274887</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D153">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E153">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F153">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>359</v>
@@ -10591,13 +10591,13 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0009065616539151902</v>
+        <v>0.0008630097841464193</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E154">
         <v>0.97</v>
@@ -10609,7 +10609,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>360</v>
@@ -10641,25 +10641,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.0008809868747188159</v>
+        <v>0.0008522789367142688</v>
       </c>
       <c r="C155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E155">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F155">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>361</v>
@@ -10691,25 +10691,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0008496173811879351</v>
+        <v>0.000847610844827627</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D156">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E156">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F156">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>362</v>
@@ -10741,25 +10741,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0008390530577460537</v>
+        <v>0.0008445561907631505</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157">
         <v>33</v>
       </c>
       <c r="E157">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F157">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>363</v>
@@ -10791,25 +10791,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0008344574064837727</v>
+        <v>0.0008411861744832587</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E158">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F158">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>364</v>
@@ -10841,25 +10841,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0008314501553096014</v>
+        <v>0.0008122541334285735</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D159">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E159">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F159">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>365</v>
@@ -10891,25 +10891,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.000828132435790217</v>
+        <v>0.0007927072255024599</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E160">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F160">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>366</v>
@@ -10941,25 +10941,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0007996493694277469</v>
+        <v>0.000779416431324607</v>
       </c>
       <c r="C161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E161">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F161">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>367</v>
@@ -10991,13 +10991,13 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0007804057953367158</v>
+        <v>0.000779416431324607</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E162">
         <v>0.96</v>
@@ -11009,7 +11009,7 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>368</v>
@@ -11041,25 +11041,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0007673212510467992</v>
+        <v>0.0007582804180317647</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E163">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F163">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>369</v>
@@ -11091,25 +11091,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0007673212510467992</v>
+        <v>0.0007392411538272016</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164">
         <v>27</v>
       </c>
       <c r="E164">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F164">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>370</v>
@@ -11141,25 +11141,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0007465132317259295</v>
+        <v>0.0007361556332727387</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E165">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F165">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>371</v>
@@ -11191,25 +11191,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.000727769423613458</v>
+        <v>0.000704020604525128</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E166">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F166">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>372</v>
@@ -11241,25 +11241,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0007247317849432578</v>
+        <v>0.000704020604525128</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E167">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F167">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>373</v>
@@ -11291,13 +11291,13 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0006930954356567336</v>
+        <v>0.0006867920055833052</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E168">
         <v>0.95</v>
@@ -11309,7 +11309,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>374</v>
@@ -11341,25 +11341,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0006930954356567336</v>
+        <v>0.000655747246137705</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E169">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F169">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>375</v>
@@ -11391,25 +11391,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0006761341944479024</v>
+        <v>0.000655747246137705</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E170">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F170">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>376</v>
@@ -11441,13 +11441,13 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0006455711953900548</v>
+        <v>0.0006327712974452474</v>
       </c>
       <c r="C171">
         <v>2</v>
       </c>
       <c r="D171">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E171">
         <v>0.91</v>
@@ -11459,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>377</v>
@@ -11491,25 +11491,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0006455711953900548</v>
+        <v>0.0006221526691782343</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D172">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E172">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F172">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>378</v>
@@ -11541,25 +11541,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.000622951793250018</v>
+        <v>0.0006088269622376238</v>
       </c>
       <c r="C173">
         <v>2</v>
       </c>
       <c r="D173">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E173">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F173">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>379</v>
@@ -11591,25 +11591,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0006124979475280359</v>
+        <v>0.0006082925520999326</v>
       </c>
       <c r="C174">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E174">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F174">
-        <v>0.13</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>380</v>
@@ -11641,25 +11641,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0005993790322603978</v>
+        <v>0.0005857511720827172</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E175">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F175">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>381</v>
@@ -11691,13 +11691,13 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0005988529152336778</v>
+        <v>0.0005857511720827172</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E176">
         <v>0.9399999999999999</v>
@@ -11709,7 +11709,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>382</v>
@@ -11741,25 +11741,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0005766613380228459</v>
+        <v>0.000561774134460633</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E177">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F177">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>383</v>
@@ -11791,25 +11791,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0005766613380228459</v>
+        <v>0.0005087751974559994</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E178">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F178">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>384</v>
@@ -11841,25 +11841,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0005530563821030606</v>
+        <v>0.0005087751974559994</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E179">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F179">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>385</v>
@@ -11891,7 +11891,7 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0005008798959370805</v>
+        <v>0.0005087751974559994</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -11909,7 +11909,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>386</v>
@@ -11941,13 +11941,13 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0005008798959370805</v>
+        <v>0.0004792934039615437</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E181">
         <v>0.92</v>
@@ -11959,7 +11959,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>387</v>
@@ -11991,13 +11991,13 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0005008798959370805</v>
+        <v>0.0004792934039615437</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E182">
         <v>0.92</v>
@@ -12009,7 +12009,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>388</v>
@@ -12041,7 +12041,7 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0004718556083315146</v>
+        <v>0.0004792934039615437</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -12059,7 +12059,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>24</v>
+        <v>288</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>389</v>
@@ -12091,7 +12091,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0004718556083315146</v>
+        <v>0.0004792934039615437</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>213</v>
+        <v>85</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>390</v>
@@ -12141,25 +12141,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0004718556083315146</v>
+        <v>0.0004474368753637443</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E185">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F185">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>288</v>
+        <v>52</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>391</v>
@@ -12191,25 +12191,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0004718556083315146</v>
+        <v>0.0004474368753637443</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E186">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F186">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>392</v>
@@ -12241,25 +12241,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0004404934373594079</v>
+        <v>0.000412836065777084</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E187">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F187">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>393</v>
@@ -12291,25 +12291,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0004404934373594079</v>
+        <v>0.000412836065777084</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E188">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F188">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>394</v>
@@ -12341,25 +12341,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0004064295718412701</v>
+        <v>0.0003750365582428839</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E189">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F189">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>395</v>
@@ -12391,28 +12391,28 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0004064295718412701</v>
+        <v>0.0003712829328967752</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E190">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="F190">
-        <v>0.09999999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K190">
         <v>0.001148754179503066</v>
@@ -12441,28 +12441,28 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0003692166465751158</v>
+        <v>0.0003712829328967752</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E191">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F191">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>22</v>
+        <v>532</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K191">
         <v>0.001118604208944931</v>
@@ -12491,28 +12491,28 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0003655212709315177</v>
+        <v>0.0003340038061370233</v>
       </c>
       <c r="C192">
         <v>2</v>
       </c>
       <c r="D192">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E192">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F192">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K192">
         <v>0.001117767533250923</v>
@@ -12541,28 +12541,28 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0003655212709315177</v>
+        <v>0.0003340038061370233</v>
       </c>
       <c r="C193">
         <v>2</v>
       </c>
       <c r="D193">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E193">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F193">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>532</v>
+        <v>22</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K193">
         <v>0.00107848230327252</v>
@@ -12591,28 +12591,28 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.000328820651040029</v>
+        <v>0.0003334768097827612</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E194">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F194">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>215</v>
+        <v>52</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K194">
         <v>0.00107848230327252</v>
@@ -12641,25 +12641,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.000328820651040029</v>
+        <v>0.0003334768097827612</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E195">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F195">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>396</v>
@@ -12691,7 +12691,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0003283018327477815</v>
+        <v>0.0003334768097827612</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -12709,7 +12709,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>397</v>
@@ -12741,25 +12741,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0003283018327477815</v>
+        <v>0.0002874655726239386</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E197">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F197">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>398</v>
@@ -12791,25 +12791,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0003283018327477815</v>
+        <v>0.0002874655726239386</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E198">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F198">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>399</v>
@@ -12841,7 +12841,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0002830046095433415</v>
+        <v>0.0002874655726239386</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -12859,7 +12859,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>400</v>
@@ -12891,25 +12891,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0002830046095433415</v>
+        <v>0.000286200948135571</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D200">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E200">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="F200">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>35</v>
+        <v>947</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>401</v>
@@ -12941,25 +12941,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0002830046095433415</v>
+        <v>0.0002361763562616062</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E201">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F201">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>402</v>
@@ -12991,25 +12991,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0002817596098159564</v>
+        <v>0.0002361763562616062</v>
       </c>
       <c r="C202">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E202">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="F202">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>947</v>
+        <v>123</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>403</v>
@@ -13041,7 +13041,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0002325113121445799</v>
+        <v>0.0002361763562616062</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13059,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>404</v>
@@ -13091,25 +13091,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0002325113121445799</v>
+        <v>0.0002086072553919782</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E204">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F204">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>405</v>
@@ -13141,25 +13141,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0002325113121445799</v>
+        <v>0.0001787308775406821</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E205">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F205">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>406</v>
@@ -13191,19 +13191,19 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0002053700355184676</v>
+        <v>0.0001787308775406821</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E206">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F206">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
@@ -13241,7 +13241,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0001759572868153859</v>
+        <v>0.0001787308775406821</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13259,7 +13259,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>408</v>
@@ -13291,7 +13291,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0001759572868153859</v>
+        <v>0.0001787308775406821</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13309,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>409</v>
@@ -13341,25 +13341,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0001759572868153859</v>
+        <v>0.0001621956499490955</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E209">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F209">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>410</v>
@@ -13391,25 +13391,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0001759572868153859</v>
+        <v>0.0001199370941169234</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D210">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E210">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F210">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>411</v>
@@ -13441,25 +13441,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0001596786570457299</v>
+        <v>0.0001199370941169234</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D211">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E211">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="F211">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>412</v>
@@ -13491,25 +13491,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0001180758801149615</v>
+        <v>0.0001146896439579654</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E212">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F212">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>413</v>
@@ -13541,25 +13541,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0001180758801149615</v>
+        <v>0.0001146896439579654</v>
       </c>
       <c r="C213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E213">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F213">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>414</v>
@@ -13591,7 +13591,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0001129098612077972</v>
+        <v>0.0001146896439579654</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -13609,7 +13609,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>15</v>
+        <v>289</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>415</v>
@@ -13641,7 +13641,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0001129098612077972</v>
+        <v>0.0001146896439579654</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -13659,7 +13659,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>416</v>
@@ -13691,7 +13691,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0001129098612077972</v>
+        <v>0.0001146896439579654</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -13709,7 +13709,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>289</v>
+        <v>12</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>417</v>
@@ -13741,7 +13741,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0001129098612077972</v>
+        <v>0.0001146896439579654</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -13759,7 +13759,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>418</v>
@@ -13791,7 +13791,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0001129098612077972</v>
+        <v>0.0001146896439579654</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -13809,7 +13809,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>419</v>
@@ -13841,7 +13841,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0001129098612077972</v>
+        <v>0.0001146896439579654</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -13859,7 +13859,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>420</v>
@@ -13891,7 +13891,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0001129098612077972</v>
+        <v>0.0001146896439579654</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -13909,7 +13909,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>421</v>
@@ -13941,25 +13941,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0001129098612077972</v>
+        <v>0.0001140989382432675</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E221">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F221">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>422</v>
@@ -13991,25 +13991,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0001129098612077972</v>
+        <v>6.601810939709402E-05</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E222">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F222">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>423</v>
@@ -14041,25 +14041,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.000112328322212998</v>
+        <v>4.668185283579979E-05</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E223">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F223">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>424</v>
@@ -14091,25 +14091,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>6.499362376570843E-05</v>
+        <v>4.668185283579979E-05</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224">
         <v>3</v>
       </c>
       <c r="E224">
+        <v>0.67</v>
+      </c>
+      <c r="F224">
         <v>0.33</v>
       </c>
-      <c r="F224">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>425</v>
@@ -14141,7 +14141,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>4.595743209861887E-05</v>
+        <v>4.668185283579979E-05</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14159,7 +14159,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>426</v>
@@ -14191,7 +14191,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>4.595743209861887E-05</v>
+        <v>4.668185283579979E-05</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14209,7 +14209,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>427</v>
@@ -14241,7 +14241,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>4.595743209861887E-05</v>
+        <v>4.668185283579979E-05</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14259,7 +14259,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>428</v>
@@ -14291,7 +14291,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>4.595743209861887E-05</v>
+        <v>4.668185283579979E-05</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14309,7 +14309,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>429</v>
@@ -14341,7 +14341,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>4.595743209861887E-05</v>
+        <v>4.668185283579979E-05</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14359,7 +14359,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>430</v>
@@ -14391,7 +14391,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>4.595743209861887E-05</v>
+        <v>4.668185283579979E-05</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14409,7 +14409,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>431</v>
@@ -14441,25 +14441,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>4.595743209861887E-05</v>
+        <v>0</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E231">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F231">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>432</v>
@@ -14491,25 +14491,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>4.595743209861887E-05</v>
+        <v>0</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E232">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F232">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>433</v>
@@ -14559,7 +14559,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>434</v>
@@ -14609,7 +14609,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>435</v>
@@ -14659,7 +14659,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>436</v>
@@ -14709,7 +14709,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>437</v>
@@ -14759,7 +14759,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>438</v>
@@ -14809,7 +14809,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>439</v>
@@ -14859,7 +14859,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>440</v>
@@ -14909,7 +14909,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>441</v>
@@ -14936,31 +14936,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
-      <c r="A241" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B241">
-        <v>0</v>
-      </c>
-      <c r="C241">
-        <v>1</v>
-      </c>
-      <c r="D241">
-        <v>2</v>
-      </c>
-      <c r="E241">
-        <v>0.5</v>
-      </c>
-      <c r="F241">
-        <v>0.5</v>
-      </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241">
-        <v>21</v>
-      </c>
+    <row r="241" spans="10:17">
       <c r="J241" s="1" t="s">
         <v>442</v>
       </c>
@@ -14986,31 +14962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
-      <c r="A242" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B242">
-        <v>0</v>
-      </c>
-      <c r="C242">
-        <v>1</v>
-      </c>
-      <c r="D242">
-        <v>2</v>
-      </c>
-      <c r="E242">
-        <v>0.5</v>
-      </c>
-      <c r="F242">
-        <v>0.5</v>
-      </c>
-      <c r="G242" t="b">
-        <v>1</v>
-      </c>
-      <c r="H242">
-        <v>54</v>
-      </c>
+    <row r="242" spans="10:17">
       <c r="J242" s="1" t="s">
         <v>443</v>
       </c>
@@ -15036,7 +14988,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="10:17">
       <c r="J243" s="1" t="s">
         <v>444</v>
       </c>
@@ -15062,7 +15014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="10:17">
       <c r="J244" s="1" t="s">
         <v>445</v>
       </c>
@@ -15088,7 +15040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="10:17">
       <c r="J245" s="1" t="s">
         <v>446</v>
       </c>
@@ -15114,7 +15066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="10:17">
       <c r="J246" s="1" t="s">
         <v>447</v>
       </c>
@@ -15140,7 +15092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="10:17">
       <c r="J247" s="1" t="s">
         <v>448</v>
       </c>
@@ -15166,7 +15118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="10:17">
       <c r="J248" s="1" t="s">
         <v>449</v>
       </c>
@@ -15192,7 +15144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="10:17">
       <c r="J249" s="1" t="s">
         <v>450</v>
       </c>
@@ -15218,7 +15170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="10:17">
       <c r="J250" s="1" t="s">
         <v>451</v>
       </c>
@@ -15244,9 +15196,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="10:17">
       <c r="J251" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K251">
         <v>0.001014185299838628</v>
@@ -15270,9 +15222,9 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="10:17">
       <c r="J252" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K252">
         <v>0.0009580547972076626</v>
@@ -15296,9 +15248,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="10:17">
       <c r="J253" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K253">
         <v>0.0009097788474246045</v>
@@ -15322,9 +15274,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="10:17">
       <c r="J254" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K254">
         <v>0.0009086652894873532</v>
@@ -15348,9 +15300,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="10:17">
       <c r="J255" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K255">
         <v>0.0009023004851193973</v>
@@ -15374,9 +15326,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="10:17">
       <c r="J256" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K256">
         <v>0.0008754912485388298</v>
@@ -15402,7 +15354,7 @@
     </row>
     <row r="257" spans="10:17">
       <c r="J257" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K257">
         <v>0.0008754912485388298</v>
@@ -15428,7 +15380,7 @@
     </row>
     <row r="258" spans="10:17">
       <c r="J258" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K258">
         <v>0.0008528319001382724</v>
@@ -18808,7 +18760,7 @@
     </row>
     <row r="388" spans="10:17">
       <c r="J388" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K388">
         <v>0.0008334835275211571</v>
@@ -18834,7 +18786,7 @@
     </row>
     <row r="389" spans="10:17">
       <c r="J389" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K389">
         <v>0.0007743407733699321</v>
@@ -18860,7 +18812,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K390">
         <v>0.0007730027857360098</v>
@@ -18886,7 +18838,7 @@
     </row>
     <row r="391" spans="10:17">
       <c r="J391" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K391">
         <v>0.0007679245664207597</v>
@@ -18912,7 +18864,7 @@
     </row>
     <row r="392" spans="10:17">
       <c r="J392" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K392">
         <v>0.0007419221020741255</v>
@@ -18938,7 +18890,7 @@
     </row>
     <row r="393" spans="10:17">
       <c r="J393" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K393">
         <v>0.0007198849328842837</v>
@@ -18964,7 +18916,7 @@
     </row>
     <row r="394" spans="10:17">
       <c r="J394" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K394">
         <v>0.0007092476978106107</v>
@@ -18990,7 +18942,7 @@
     </row>
     <row r="395" spans="10:17">
       <c r="J395" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K395">
         <v>0.0006602817328629884</v>
@@ -19016,7 +18968,7 @@
     </row>
     <row r="396" spans="10:17">
       <c r="J396" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K396">
         <v>0.000615624064460427</v>
@@ -19042,7 +18994,7 @@
     </row>
     <row r="397" spans="10:17">
       <c r="J397" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K397">
         <v>0.000615624064460427</v>
@@ -26530,7 +26482,7 @@
     </row>
     <row r="685" spans="10:17">
       <c r="J685" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K685">
         <v>0.0005766176303274286</v>
@@ -26556,7 +26508,7 @@
     </row>
     <row r="686" spans="10:17">
       <c r="J686" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K686">
         <v>0.0005766176303274286</v>
@@ -26582,7 +26534,7 @@
     </row>
     <row r="687" spans="10:17">
       <c r="J687" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K687">
         <v>0.0005704039826476977</v>
@@ -26608,7 +26560,7 @@
     </row>
     <row r="688" spans="10:17">
       <c r="J688" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K688">
         <v>0.0005430046683558591</v>
@@ -26634,7 +26586,7 @@
     </row>
     <row r="689" spans="10:17">
       <c r="J689" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K689">
         <v>0.0005092282303388969</v>
@@ -26686,7 +26638,7 @@
     </row>
     <row r="691" spans="10:17">
       <c r="J691" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K691">
         <v>0.0004782702273458539</v>
@@ -26712,7 +26664,7 @@
     </row>
     <row r="692" spans="10:17">
       <c r="J692" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K692">
         <v>0.0004782702273458539</v>
@@ -26738,7 +26690,7 @@
     </row>
     <row r="693" spans="10:17">
       <c r="J693" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K693">
         <v>0.0004782702273458539</v>
@@ -26764,7 +26716,7 @@
     </row>
     <row r="694" spans="10:17">
       <c r="J694" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K694">
         <v>0.0004313746171854798</v>
@@ -26790,7 +26742,7 @@
     </row>
     <row r="695" spans="10:17">
       <c r="J695" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K695">
         <v>0.0004313746171854798</v>
@@ -26816,7 +26768,7 @@
     </row>
     <row r="696" spans="10:17">
       <c r="J696" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K696">
         <v>0.0004313746171854798</v>
@@ -26842,7 +26794,7 @@
     </row>
     <row r="697" spans="10:17">
       <c r="J697" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K697">
         <v>0.0004313746171854798</v>
@@ -26868,7 +26820,7 @@
     </row>
     <row r="698" spans="10:17">
       <c r="J698" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K698">
         <v>0.0004304378357165027</v>
@@ -26894,7 +26846,7 @@
     </row>
     <row r="699" spans="10:17">
       <c r="J699" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K699">
         <v>0.0003839622832103799</v>
@@ -26920,7 +26872,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K700">
         <v>0.0003839622832103799</v>
@@ -26946,7 +26898,7 @@
     </row>
     <row r="701" spans="10:17">
       <c r="J701" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K701">
         <v>0.0003360900671378554</v>
@@ -26972,7 +26924,7 @@
     </row>
     <row r="702" spans="10:17">
       <c r="J702" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K702">
         <v>0.0003360900671378554</v>
@@ -26998,7 +26950,7 @@
     </row>
     <row r="703" spans="10:17">
       <c r="J703" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K703">
         <v>0.0002878560687824005</v>
@@ -27024,7 +26976,7 @@
     </row>
     <row r="704" spans="10:17">
       <c r="J704" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K704">
         <v>0.0002394260772974436</v>
@@ -27050,7 +27002,7 @@
     </row>
     <row r="705" spans="10:17">
       <c r="J705" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K705">
         <v>0.0002394260772974436</v>
@@ -27076,7 +27028,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K706">
         <v>0.0002394260772974436</v>
@@ -27102,7 +27054,7 @@
     </row>
     <row r="707" spans="10:17">
       <c r="J707" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K707">
         <v>0.0002362887924583878</v>
@@ -27128,7 +27080,7 @@
     </row>
     <row r="708" spans="10:17">
       <c r="J708" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K708">
         <v>0.0002362887924583878</v>
@@ -27154,7 +27106,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K709">
         <v>0.0002026717465269122</v>
@@ -27180,7 +27132,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K710">
         <v>0.0002026717465269122</v>
@@ -27206,7 +27158,7 @@
     </row>
     <row r="711" spans="10:17">
       <c r="J711" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K711">
         <v>0.0001910813308958592</v>
@@ -27232,7 +27184,7 @@
     </row>
     <row r="712" spans="10:17">
       <c r="J712" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K712">
         <v>0.0001910813308958592</v>
@@ -27258,7 +27210,7 @@
     </row>
     <row r="713" spans="10:17">
       <c r="J713" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K713">
         <v>0.0001910813308958592</v>
@@ -27310,7 +27262,7 @@
     </row>
     <row r="715" spans="10:17">
       <c r="J715" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K715">
         <v>0.0001433105663241007</v>
@@ -27336,7 +27288,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K716">
         <v>0.0001433105663241007</v>
@@ -27362,7 +27314,7 @@
     </row>
     <row r="717" spans="10:17">
       <c r="J717" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K717">
         <v>0.0001433105663241007</v>
@@ -27388,7 +27340,7 @@
     </row>
     <row r="718" spans="10:17">
       <c r="J718" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K718">
         <v>0.0001389321796949782</v>
@@ -27414,7 +27366,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K719">
         <v>0.0001059059166181032</v>
@@ -27440,7 +27392,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K720">
         <v>9.700327016275597E-05</v>
@@ -27466,7 +27418,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K721">
         <v>9.700327016275597E-05</v>
@@ -27492,7 +27444,7 @@
     </row>
     <row r="722" spans="10:17">
       <c r="J722" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K722">
         <v>9.700327016275597E-05</v>
@@ -27518,7 +27470,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K723">
         <v>9.700327016275597E-05</v>
@@ -27544,7 +27496,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K724">
         <v>7.623538918912338E-05</v>
@@ -27570,7 +27522,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K725">
         <v>5.390656066202476E-05</v>
@@ -27596,7 +27548,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K726">
         <v>5.390656066202476E-05</v>
@@ -27622,7 +27574,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K727">
         <v>5.390656066202476E-05</v>
@@ -27648,7 +27600,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K728">
         <v>5.390656066202476E-05</v>
@@ -27674,7 +27626,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K729">
         <v>5.390656066202476E-05</v>
@@ -27700,7 +27652,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K730">
         <v>5.390656066202476E-05</v>
@@ -27726,7 +27678,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K731">
         <v>5.390656066202476E-05</v>
@@ -27752,7 +27704,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K732">
         <v>5.390656066202476E-05</v>
@@ -27778,7 +27730,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K733">
         <v>5.390656066202476E-05</v>
@@ -27804,7 +27756,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K734">
         <v>4.971628936218894E-05</v>
@@ -27830,7 +27782,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K735">
         <v>4.971628936218894E-05</v>
@@ -27856,7 +27808,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K736">
         <v>4.895627880932925E-05</v>
@@ -27882,7 +27834,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K737">
         <v>1.791512633295005E-05</v>
@@ -27908,7 +27860,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K738">
         <v>1.791512633295005E-05</v>
@@ -27934,7 +27886,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K739">
         <v>1.791512633295005E-05</v>
@@ -27960,7 +27912,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K740">
         <v>1.791512633295005E-05</v>
@@ -27986,7 +27938,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K741">
         <v>1.791512633295005E-05</v>
@@ -28012,7 +27964,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K742">
         <v>1.791512633295005E-05</v>
@@ -28038,7 +27990,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K743">
         <v>1.791512633295005E-05</v>
@@ -28064,7 +28016,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K744">
         <v>1.791512633295005E-05</v>
@@ -28090,7 +28042,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K745">
         <v>1.266790731584247E-05</v>
@@ -28116,7 +28068,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K746">
         <v>0</v>
@@ -28142,7 +28094,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K747">
         <v>0</v>
@@ -28168,7 +28120,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K748">
         <v>0</v>
@@ -28194,7 +28146,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K749">
         <v>0</v>
@@ -28220,7 +28172,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K750">
         <v>0</v>
@@ -28246,7 +28198,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K751">
         <v>0</v>
@@ -28272,7 +28224,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K752">
         <v>0</v>
@@ -28298,7 +28250,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K753">
         <v>0</v>
@@ -28324,7 +28276,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K754">
         <v>0</v>
@@ -28350,7 +28302,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K755">
         <v>0</v>
